--- a/fhir/ig/tei/0.2.0/StructureDefinition-ObservationAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.0/StructureDefinition-ObservationAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T16:50:11-04:00</t>
+    <t>2024-06-03T10:40:28-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.0/StructureDefinition-ObservationAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.0/StructureDefinition-ObservationAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T10:40:28-04:00</t>
+    <t>2024-06-03T17:44:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.0/StructureDefinition-ObservationAtenderLE.xlsx
+++ b/fhir/ig/tei/0.2.0/StructureDefinition-ObservationAtenderLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T17:44:35-04:00</t>
+    <t>2024-06-04T10:43:39-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
